--- a/va_facility_data_2025-02-20/Lakeland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lakeland%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lakeland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lakeland%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8a11bda6dd55438ca26d658b10320e38"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55837ec4d6c44f36a2e0d755d7359330"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd19f476f3fe04a65aa1377b67468a3b4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc383d039c774415a4ec4e67f82c4acf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R82ae997dae0c47f595fbd6a3bf4ec9c1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc113c31fca2f45a4b127a42ba5aff5be"/>
   </x:sheets>
 </x:workbook>
 </file>
